--- a/SingleProducerMulticonsumer.xlsx
+++ b/SingleProducerMulticonsumer.xlsx
@@ -2170,7 +2170,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
